--- a/data/trans_dic/P33B_R4-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R4-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.1051116689958443</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1807638885475491</v>
+        <v>0.180763888547549</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1406731039118807</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08080739211933159</v>
+        <v>0.08156710998923067</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1502131995430003</v>
+        <v>0.1538356889025314</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1213680679740507</v>
+        <v>0.1226965035208844</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1369596171768833</v>
+        <v>0.133056222790825</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2169303139181036</v>
+        <v>0.217373009228507</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1618392690890841</v>
+        <v>0.1617448527946506</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09411018841200951</v>
+        <v>0.09414313467005629</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1628760839245663</v>
+        <v>0.1680964744407145</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1357709957490973</v>
+        <v>0.1349729494046353</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1573346565652869</v>
+        <v>0.1538222177291106</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.23162728082647</v>
+        <v>0.2346922276044192</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1794705846658414</v>
+        <v>0.1814071238355485</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.2529315029293057</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.203745776121889</v>
+        <v>0.2037457761218891</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1493682569518436</v>
+        <v>0.1501419065801634</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2083952078205351</v>
+        <v>0.203238218352865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1742901846390349</v>
+        <v>0.1736809864975586</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2258322793449258</v>
+        <v>0.2236813434039764</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3075658706775868</v>
+        <v>0.3049533155153464</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2371440151676532</v>
+        <v>0.2369309355916958</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.135171545477017</v>
+        <v>0.1346441915641618</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1886381683701819</v>
+        <v>0.1904794075245277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.165083638025261</v>
+        <v>0.1642755655876653</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1778174512936804</v>
+        <v>0.177543428760968</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2419502491104106</v>
+        <v>0.2417168306587446</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1973071226459826</v>
+        <v>0.1957248081526921</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1068820068352316</v>
+        <v>0.1078171574828427</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2503556937246585</v>
+        <v>0.2495781161160684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2001964654428935</v>
+        <v>0.1986809204637934</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1725074303344881</v>
+        <v>0.1672995970179184</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3008040837655755</v>
+        <v>0.301829514841646</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2414288388202853</v>
+        <v>0.2390393626068328</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04506730730394469</v>
+        <v>0.04444614702145107</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2013484710539919</v>
+        <v>0.1982963069073778</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1753575655995979</v>
+        <v>0.1722700271570143</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1499281816399368</v>
+        <v>0.1549889365835992</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2530879539846725</v>
+        <v>0.2535333445616128</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2231705600158841</v>
+        <v>0.2182484385969256</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.1384549801364325</v>
+        <v>0.1384549801364324</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.226983613107052</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1267899902234547</v>
+        <v>0.1267134153887286</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2151886987610233</v>
+        <v>0.2139550829962182</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1751404236485674</v>
+        <v>0.1750877682292981</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1512814439439777</v>
+        <v>0.1515547162997702</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2392434576513677</v>
+        <v>0.238697988740569</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1927272979916332</v>
+        <v>0.1917271563350522</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>44494</v>
+        <v>44912</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>73366</v>
+        <v>75135</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>126105</v>
+        <v>127485</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>75412</v>
+        <v>73263</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>105951</v>
+        <v>106167</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>168156</v>
+        <v>168058</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>45382</v>
+        <v>45398</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>68920</v>
+        <v>71129</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>122923</v>
+        <v>122200</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>75871</v>
+        <v>74177</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>98011</v>
+        <v>99308</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>162487</v>
+        <v>164240</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>70298</v>
+        <v>70662</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39073</v>
+        <v>38107</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>114706</v>
+        <v>114305</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>106284</v>
+        <v>105272</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>57668</v>
+        <v>57178</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>156072</v>
+        <v>155931</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>152993</v>
+        <v>152396</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>162379</v>
+        <v>163964</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>328952</v>
+        <v>327342</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>201261</v>
+        <v>200951</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>208270</v>
+        <v>208069</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>393162</v>
+        <v>390009</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>60589</v>
+        <v>61120</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>207827</v>
+        <v>207182</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>279676</v>
+        <v>277559</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>97791</v>
+        <v>94839</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>249706</v>
+        <v>250557</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>337278</v>
+        <v>333940</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>10691</v>
+        <v>10544</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>169845</v>
+        <v>167271</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>189521</v>
+        <v>186184</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>35567</v>
+        <v>36768</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>213490</v>
+        <v>213866</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>241196</v>
+        <v>235876</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>436085</v>
+        <v>435822</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>781891</v>
+        <v>777409</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1238758</v>
+        <v>1238386</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>520322</v>
+        <v>521262</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>869295</v>
+        <v>867313</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1363149</v>
+        <v>1356075</v>
       </c>
     </row>
     <row r="32">
